--- a/Share/ExcelTemplate/UserMenuGrant.xlsx
+++ b/Share/ExcelTemplate/UserMenuGrant.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\Handy\Share\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F58223B-E0D3-4ADC-A0B2-50607FFE36D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBE8A3-3699-4621-A5C9-18EC06BFFF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{6ADC8A4A-52FB-4BCF-AD8C-6ABEE9BA9AC6}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
